--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,2883 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131106322</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>601612</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6992728</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2025_0861</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131106324</v>
+      </c>
+      <c r="B6" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>601605</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6992737</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2025_0859</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131106316</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>601561</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6992629</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2025_0867</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131106309</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>601504</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6992544</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025_0875</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131106326</v>
+      </c>
+      <c r="B9" t="n">
+        <v>92179</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>601617</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6992789</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2025_0857</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>David Isaksson, Alexander Hoffmann, Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131106319</v>
+      </c>
+      <c r="B10" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>658</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>601569</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6992657</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2025_0864</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131106315</v>
+      </c>
+      <c r="B11" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>658</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>601573</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6992600</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2025_0868</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131106321</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92021</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lappticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Amylocystis lapponica</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>601579</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6992698</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2025_0862</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131106314</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>601556</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6992605</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025_0870</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131106312</v>
+      </c>
+      <c r="B14" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>658</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>601540</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6992576</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2025_0872</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131106325</v>
+      </c>
+      <c r="B15" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>601615</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6992785</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2025_0858</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131106308</v>
+      </c>
+      <c r="B16" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>601505</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6992571</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2025_0876</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131106320</v>
+      </c>
+      <c r="B17" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Gunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>601577</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6992687</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2025_0863</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131106289</v>
+      </c>
+      <c r="B18" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Håviksmyran, Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>601411</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6992338</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2025_0895</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Linnéa Kjellberg, Jennifer Lehikoinen</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131106318</v>
+      </c>
+      <c r="B19" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>658</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>601572</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6992627</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2025_0865</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131106310</v>
+      </c>
+      <c r="B20" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>601470</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6992568</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2025_0874</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131106313</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>601530</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6992589</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2025_0871</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131106317</v>
+      </c>
+      <c r="B22" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>601567</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6992627</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2025_0866</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131108353</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10966</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>101449</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Olisthaerus substriatus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Paykull, 1790)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>601612</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6992796</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2025_0855</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Granlåga med både rynkskinn, ull-och violticka</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131106311</v>
+      </c>
+      <c r="B24" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>601498</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6992583</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2025_0873</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131106327</v>
+      </c>
+      <c r="B25" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>601607</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6992789</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2025_0856</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>David Isaksson, Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131106323</v>
+      </c>
+      <c r="B26" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>658</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>601607</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6992738</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2025_0860</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131106330</v>
+      </c>
+      <c r="B27" t="n">
+        <v>92106</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>658</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>601607</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6992782</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2025_0853</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>David Isaksson, Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131106329</v>
+      </c>
+      <c r="B28" t="n">
+        <v>92267</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hermanssonia centrifuga</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(P. Karst.) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Grunnes gamla tomt, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>601609</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6992789</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Graninge</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>2025_0854</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>David Isaksson, Alexander Hoffmann</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1647,7 +1647,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131106319</v>
+        <v>131106315</v>
       </c>
       <c r="B10" t="n">
         <v>92106</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>601569</v>
+        <v>601573</v>
       </c>
       <c r="R10" t="n">
-        <v>6992657</v>
+        <v>6992600</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025_0864</t>
+          <t>2025_0868</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131106315</v>
+        <v>131106319</v>
       </c>
       <c r="B11" t="n">
         <v>92106</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>601573</v>
+        <v>601569</v>
       </c>
       <c r="R11" t="n">
-        <v>6992600</v>
+        <v>6992657</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025_0868</t>
+          <t>2025_0864</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -2018,7 +2018,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106314</v>
+        <v>131106325</v>
       </c>
       <c r="B13" t="n">
         <v>91808</v>
@@ -2046,11 +2046,7 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2062,10 +2058,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601556</v>
+        <v>601615</v>
       </c>
       <c r="R13" t="n">
-        <v>6992605</v>
+        <v>6992785</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2092,7 +2088,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2102,7 +2098,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2112,7 +2108,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2132,7 +2128,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2264,7 +2260,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131106325</v>
+        <v>131106314</v>
       </c>
       <c r="B15" t="n">
         <v>91808</v>
@@ -2292,7 +2288,11 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601615</v>
+        <v>601556</v>
       </c>
       <c r="R15" t="n">
-        <v>6992785</v>
+        <v>6992605</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131106310</v>
+        <v>131106313</v>
       </c>
       <c r="B20" t="n">
         <v>91808</v>
@@ -2890,17 +2890,26 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>601470</v>
+        <v>601530</v>
       </c>
       <c r="R20" t="n">
-        <v>6992568</v>
+        <v>6992589</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2927,7 +2936,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025_0874</t>
+          <t>2025_0871</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2937,7 +2946,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2947,7 +2956,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2967,7 +2976,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2978,7 +2987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131106313</v>
+        <v>131106310</v>
       </c>
       <c r="B21" t="n">
         <v>91808</v>
@@ -3006,26 +3015,17 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>601530</v>
+        <v>601470</v>
       </c>
       <c r="R21" t="n">
-        <v>6992589</v>
+        <v>6992568</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025_0871</t>
+          <t>2025_0874</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131108353</v>
+        <v>131106323</v>
       </c>
       <c r="B23" t="n">
-        <v>10966</v>
+        <v>92106</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,38 +3230,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101449</v>
+        <v>658</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Olisthaerus substriatus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Paykull, 1790)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>601612</v>
+        <v>601607</v>
       </c>
       <c r="R23" t="n">
-        <v>6992796</v>
+        <v>6992738</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3288,7 +3284,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0855</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3298,7 +3294,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3308,12 +3304,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Granlåga med både rynkskinn, ull-och violticka</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3344,7 +3335,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106311</v>
+        <v>131106327</v>
       </c>
       <c r="B24" t="n">
         <v>91808</v>
@@ -3373,16 +3364,21 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>601498</v>
+        <v>601607</v>
       </c>
       <c r="R24" t="n">
-        <v>6992583</v>
+        <v>6992789</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3409,7 +3405,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3419,7 +3415,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3429,7 +3425,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3449,7 +3445,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3460,7 +3456,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106327</v>
+        <v>131106311</v>
       </c>
       <c r="B25" t="n">
         <v>91808</v>
@@ -3489,21 +3485,16 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>601607</v>
+        <v>601498</v>
       </c>
       <c r="R25" t="n">
-        <v>6992789</v>
+        <v>6992583</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3530,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3540,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3550,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3570,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3581,10 +3572,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131106323</v>
+        <v>131108353</v>
       </c>
       <c r="B26" t="n">
-        <v>92106</v>
+        <v>10966</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3592,34 +3583,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Rosenticka</t>
-        </is>
+        <v>101449</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Olisthaerus substriatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Paykull, 1790)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>601607</v>
+        <v>601612</v>
       </c>
       <c r="R26" t="n">
-        <v>6992738</v>
+        <v>6992796</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3646,7 +3641,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0855</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3656,7 +3651,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3666,7 +3661,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Granlåga med både rynkskinn, ull-och violticka</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3697,45 +3697,50 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131106330</v>
+        <v>131106329</v>
       </c>
       <c r="B27" t="n">
-        <v>92106</v>
+        <v>92267</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>601607</v>
+        <v>601609</v>
       </c>
       <c r="R27" t="n">
-        <v>6992782</v>
+        <v>6992789</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025_0853</t>
+          <t>2025_0854</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3772,7 +3777,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3782,7 +3787,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3813,50 +3818,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131106329</v>
+        <v>131106330</v>
       </c>
       <c r="B28" t="n">
-        <v>92267</v>
+        <v>92106</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>601609</v>
+        <v>601607</v>
       </c>
       <c r="R28" t="n">
-        <v>6992789</v>
+        <v>6992782</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025_0854</t>
+          <t>2025_0853</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1636,7 +1636,7 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann, Anders Forsberg</t>
+          <t>Anders Forsberg, Alexander Hoffmann, David Isaksson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -2018,10 +2018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106325</v>
+        <v>131106312</v>
       </c>
       <c r="B13" t="n">
-        <v>91808</v>
+        <v>92106</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,21 +2029,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2058,10 +2058,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601615</v>
+        <v>601540</v>
       </c>
       <c r="R13" t="n">
-        <v>6992785</v>
+        <v>6992576</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0872</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2139,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106312</v>
+        <v>131106314</v>
       </c>
       <c r="B14" t="n">
-        <v>92106</v>
+        <v>91808</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2150,24 +2150,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2179,10 +2183,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601540</v>
+        <v>601556</v>
       </c>
       <c r="R14" t="n">
-        <v>6992576</v>
+        <v>6992605</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2209,7 +2213,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0872</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2219,7 +2223,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2229,7 +2233,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2260,7 +2264,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131106314</v>
+        <v>131106325</v>
       </c>
       <c r="B15" t="n">
         <v>91808</v>
@@ -2288,11 +2292,7 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601556</v>
+        <v>601615</v>
       </c>
       <c r="R15" t="n">
-        <v>6992605</v>
+        <v>6992785</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Linnéa Kjellberg, Jennifer Lehikoinen</t>
+          <t>Jennifer Lehikoinen, Linnéa Kjellberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131106313</v>
+        <v>131106310</v>
       </c>
       <c r="B20" t="n">
         <v>91808</v>
@@ -2890,26 +2890,17 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>601530</v>
+        <v>601470</v>
       </c>
       <c r="R20" t="n">
-        <v>6992589</v>
+        <v>6992568</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2936,7 +2927,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025_0871</t>
+          <t>2025_0874</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2946,7 +2937,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2956,7 +2947,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2976,7 +2967,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2987,7 +2978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131106310</v>
+        <v>131106313</v>
       </c>
       <c r="B21" t="n">
         <v>91808</v>
@@ -3015,17 +3006,26 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>601470</v>
+        <v>601530</v>
       </c>
       <c r="R21" t="n">
-        <v>6992568</v>
+        <v>6992589</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025_0874</t>
+          <t>2025_0871</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106327</v>
+        <v>131106311</v>
       </c>
       <c r="B24" t="n">
         <v>91808</v>
@@ -3364,21 +3364,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>601607</v>
+        <v>601498</v>
       </c>
       <c r="R24" t="n">
-        <v>6992789</v>
+        <v>6992583</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3405,7 +3400,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3415,7 +3410,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3425,7 +3420,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3445,7 +3440,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3456,7 +3451,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106311</v>
+        <v>131106327</v>
       </c>
       <c r="B25" t="n">
         <v>91808</v>
@@ -3485,16 +3480,21 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>601498</v>
+        <v>601607</v>
       </c>
       <c r="R25" t="n">
-        <v>6992583</v>
+        <v>6992789</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>Alexander Hoffmann, David Isaksson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3697,50 +3697,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131106329</v>
+        <v>131106330</v>
       </c>
       <c r="B27" t="n">
-        <v>92267</v>
+        <v>92106</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>601609</v>
+        <v>601607</v>
       </c>
       <c r="R27" t="n">
-        <v>6992789</v>
+        <v>6992782</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3767,7 +3762,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025_0854</t>
+          <t>2025_0853</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3777,7 +3772,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3787,7 +3782,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3807,7 +3802,7 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>Alexander Hoffmann, David Isaksson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3818,45 +3813,50 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131106330</v>
+        <v>131106329</v>
       </c>
       <c r="B28" t="n">
-        <v>92106</v>
+        <v>92267</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>601607</v>
+        <v>601609</v>
       </c>
       <c r="R28" t="n">
-        <v>6992782</v>
+        <v>6992789</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025_0853</t>
+          <t>2025_0854</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>Alexander Hoffmann, David Isaksson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1636,7 +1636,7 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Anders Forsberg, Alexander Hoffmann, David Isaksson</t>
+          <t>David Isaksson, Alexander Hoffmann, Anders Forsberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -2139,7 +2139,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106314</v>
+        <v>131106325</v>
       </c>
       <c r="B14" t="n">
         <v>91808</v>
@@ -2167,11 +2167,7 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2183,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601556</v>
+        <v>601615</v>
       </c>
       <c r="R14" t="n">
-        <v>6992605</v>
+        <v>6992785</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2213,7 +2209,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2223,7 +2219,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2233,7 +2229,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2253,7 +2249,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2264,7 +2260,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131106325</v>
+        <v>131106314</v>
       </c>
       <c r="B15" t="n">
         <v>91808</v>
@@ -2292,7 +2288,11 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601615</v>
+        <v>601556</v>
       </c>
       <c r="R15" t="n">
-        <v>6992785</v>
+        <v>6992605</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jennifer Lehikoinen, Linnéa Kjellberg</t>
+          <t>Linnéa Kjellberg, Jennifer Lehikoinen</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131106310</v>
+        <v>131106313</v>
       </c>
       <c r="B20" t="n">
         <v>91808</v>
@@ -2890,17 +2890,26 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>601470</v>
+        <v>601530</v>
       </c>
       <c r="R20" t="n">
-        <v>6992568</v>
+        <v>6992589</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2927,7 +2936,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025_0874</t>
+          <t>2025_0871</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2937,7 +2946,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2947,7 +2956,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2967,7 +2976,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2978,7 +2987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131106313</v>
+        <v>131106310</v>
       </c>
       <c r="B21" t="n">
         <v>91808</v>
@@ -3006,26 +3015,17 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>601530</v>
+        <v>601470</v>
       </c>
       <c r="R21" t="n">
-        <v>6992589</v>
+        <v>6992568</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025_0871</t>
+          <t>2025_0874</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131106323</v>
+        <v>131106327</v>
       </c>
       <c r="B23" t="n">
-        <v>92106</v>
+        <v>91808</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,24 +3230,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3257,7 +3262,7 @@
         <v>601607</v>
       </c>
       <c r="R23" t="n">
-        <v>6992738</v>
+        <v>6992789</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3284,7 +3289,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3294,7 +3299,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3304,7 +3309,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3324,7 +3329,7 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3451,10 +3456,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106327</v>
+        <v>131106323</v>
       </c>
       <c r="B25" t="n">
-        <v>91808</v>
+        <v>92106</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3462,29 +3467,24 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3494,7 +3494,7 @@
         <v>601607</v>
       </c>
       <c r="R25" t="n">
-        <v>6992789</v>
+        <v>6992738</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann, David Isaksson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3697,45 +3697,50 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131106330</v>
+        <v>131106329</v>
       </c>
       <c r="B27" t="n">
-        <v>92106</v>
+        <v>92267</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>601607</v>
+        <v>601609</v>
       </c>
       <c r="R27" t="n">
-        <v>6992782</v>
+        <v>6992789</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025_0853</t>
+          <t>2025_0854</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3772,7 +3777,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3782,7 +3787,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3802,7 +3807,7 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann, David Isaksson</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3813,50 +3818,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131106329</v>
+        <v>131106330</v>
       </c>
       <c r="B28" t="n">
-        <v>92267</v>
+        <v>92106</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>601609</v>
+        <v>601607</v>
       </c>
       <c r="R28" t="n">
-        <v>6992789</v>
+        <v>6992782</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025_0854</t>
+          <t>2025_0853</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann, David Isaksson</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1060,7 +1060,7 @@
         <v>131106322</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>131106324</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>131106316</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>131106309</v>
       </c>
       <c r="B8" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>131106326</v>
       </c>
       <c r="B9" t="n">
-        <v>92179</v>
+        <v>92180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1647,39 +1647,35 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131106315</v>
+        <v>131106321</v>
       </c>
       <c r="B10" t="n">
-        <v>92106</v>
+        <v>92022</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1691,10 +1687,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>601573</v>
+        <v>601579</v>
       </c>
       <c r="R10" t="n">
-        <v>6992600</v>
+        <v>6992698</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1717,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025_0868</t>
+          <t>2025_0862</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1731,7 +1727,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1741,7 +1737,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1761,7 +1757,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1772,10 +1768,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131106319</v>
+        <v>131106315</v>
       </c>
       <c r="B11" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1802,7 +1798,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1812,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>601569</v>
+        <v>601573</v>
       </c>
       <c r="R11" t="n">
-        <v>6992657</v>
+        <v>6992600</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,7 +1842,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025_0864</t>
+          <t>2025_0868</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1866,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1886,7 +1882,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1897,35 +1893,39 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131106321</v>
+        <v>131106319</v>
       </c>
       <c r="B12" t="n">
-        <v>92021</v>
+        <v>92107</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>601579</v>
+        <v>601569</v>
       </c>
       <c r="R12" t="n">
-        <v>6992698</v>
+        <v>6992657</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025_0862</t>
+          <t>2025_0864</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2018,10 +2018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106312</v>
+        <v>131106325</v>
       </c>
       <c r="B13" t="n">
-        <v>92106</v>
+        <v>91809</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,21 +2029,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2058,10 +2058,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601540</v>
+        <v>601615</v>
       </c>
       <c r="R13" t="n">
-        <v>6992576</v>
+        <v>6992785</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0872</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2139,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106325</v>
+        <v>131106312</v>
       </c>
       <c r="B14" t="n">
-        <v>91808</v>
+        <v>92107</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2150,21 +2150,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601615</v>
+        <v>601540</v>
       </c>
       <c r="R14" t="n">
-        <v>6992785</v>
+        <v>6992576</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0872</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2263,7 +2263,7 @@
         <v>131106314</v>
       </c>
       <c r="B15" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>131106308</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>131106318</v>
       </c>
       <c r="B19" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>131106313</v>
       </c>
       <c r="B20" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>131106310</v>
       </c>
       <c r="B21" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>131106317</v>
       </c>
       <c r="B22" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131106327</v>
+        <v>131106323</v>
       </c>
       <c r="B23" t="n">
-        <v>91808</v>
+        <v>92107</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,29 +3230,24 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3262,7 +3257,7 @@
         <v>601607</v>
       </c>
       <c r="R23" t="n">
-        <v>6992789</v>
+        <v>6992738</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3289,7 +3284,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3299,7 +3294,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3309,7 +3304,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3329,7 +3324,7 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3340,10 +3335,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106311</v>
+        <v>131106327</v>
       </c>
       <c r="B24" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3369,16 +3364,21 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>601498</v>
+        <v>601607</v>
       </c>
       <c r="R24" t="n">
-        <v>6992583</v>
+        <v>6992789</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3456,10 +3456,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106323</v>
+        <v>131106311</v>
       </c>
       <c r="B25" t="n">
-        <v>92106</v>
+        <v>91809</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>601607</v>
+        <v>601498</v>
       </c>
       <c r="R25" t="n">
-        <v>6992738</v>
+        <v>6992583</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3700,7 +3700,7 @@
         <v>131106329</v>
       </c>
       <c r="B27" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>131106330</v>
       </c>
       <c r="B28" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1647,35 +1647,39 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131106321</v>
+        <v>131106319</v>
       </c>
       <c r="B10" t="n">
-        <v>92022</v>
+        <v>92107</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1687,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>601579</v>
+        <v>601569</v>
       </c>
       <c r="R10" t="n">
-        <v>6992698</v>
+        <v>6992657</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1717,7 +1721,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025_0862</t>
+          <t>2025_0864</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1727,7 +1731,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1737,7 +1741,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1893,39 +1897,35 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131106319</v>
+        <v>131106321</v>
       </c>
       <c r="B12" t="n">
-        <v>92107</v>
+        <v>92022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>601569</v>
+        <v>601579</v>
       </c>
       <c r="R12" t="n">
-        <v>6992657</v>
+        <v>6992698</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025_0864</t>
+          <t>2025_0862</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2018,10 +2018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106325</v>
+        <v>131106312</v>
       </c>
       <c r="B13" t="n">
-        <v>91809</v>
+        <v>92107</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,21 +2029,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2058,10 +2058,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601615</v>
+        <v>601540</v>
       </c>
       <c r="R13" t="n">
-        <v>6992785</v>
+        <v>6992576</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0872</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2139,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106312</v>
+        <v>131106325</v>
       </c>
       <c r="B14" t="n">
-        <v>92107</v>
+        <v>91809</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2150,21 +2150,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601540</v>
+        <v>601615</v>
       </c>
       <c r="R14" t="n">
-        <v>6992576</v>
+        <v>6992785</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0872</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -3697,50 +3697,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131106329</v>
+        <v>131106330</v>
       </c>
       <c r="B27" t="n">
-        <v>92268</v>
+        <v>92107</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>601609</v>
+        <v>601607</v>
       </c>
       <c r="R27" t="n">
-        <v>6992789</v>
+        <v>6992782</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3767,7 +3762,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025_0854</t>
+          <t>2025_0853</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3777,7 +3772,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3787,7 +3782,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3818,45 +3813,50 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131106330</v>
+        <v>131106329</v>
       </c>
       <c r="B28" t="n">
-        <v>92107</v>
+        <v>92268</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>601607</v>
+        <v>601609</v>
       </c>
       <c r="R28" t="n">
-        <v>6992782</v>
+        <v>6992789</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025_0853</t>
+          <t>2025_0854</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1647,7 +1647,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131106319</v>
+        <v>131106315</v>
       </c>
       <c r="B10" t="n">
         <v>92107</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>601569</v>
+        <v>601573</v>
       </c>
       <c r="R10" t="n">
-        <v>6992657</v>
+        <v>6992600</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025_0864</t>
+          <t>2025_0868</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131106315</v>
+        <v>131106319</v>
       </c>
       <c r="B11" t="n">
         <v>92107</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>601573</v>
+        <v>601569</v>
       </c>
       <c r="R11" t="n">
-        <v>6992600</v>
+        <v>6992657</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025_0868</t>
+          <t>2025_0864</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -2139,7 +2139,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106325</v>
+        <v>131106314</v>
       </c>
       <c r="B14" t="n">
         <v>91809</v>
@@ -2167,7 +2167,11 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2179,10 +2183,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601615</v>
+        <v>601556</v>
       </c>
       <c r="R14" t="n">
-        <v>6992785</v>
+        <v>6992605</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2209,7 +2213,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2219,7 +2223,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2229,7 +2233,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2260,7 +2264,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131106314</v>
+        <v>131106325</v>
       </c>
       <c r="B15" t="n">
         <v>91809</v>
@@ -2288,11 +2292,7 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601556</v>
+        <v>601615</v>
       </c>
       <c r="R15" t="n">
-        <v>6992605</v>
+        <v>6992785</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2385,10 +2385,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131106308</v>
+        <v>131106320</v>
       </c>
       <c r="B16" t="n">
-        <v>91809</v>
+        <v>58043</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2396,34 +2396,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Grunnes gamla tomt, Ång</t>
+          <t>Gunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>601505</v>
+        <v>601577</v>
       </c>
       <c r="R16" t="n">
-        <v>6992571</v>
+        <v>6992687</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2025_0876</t>
+          <t>2025_0863</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>Anders Forsberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2501,10 +2501,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131106320</v>
+        <v>131106308</v>
       </c>
       <c r="B17" t="n">
-        <v>58043</v>
+        <v>91809</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2512,34 +2512,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gunnes gamla tomt, Ång</t>
+          <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>601577</v>
+        <v>601505</v>
       </c>
       <c r="R17" t="n">
-        <v>6992687</v>
+        <v>6992571</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2025_0863</t>
+          <t>2025_0876</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Anders Forsberg</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131106313</v>
+        <v>131106310</v>
       </c>
       <c r="B20" t="n">
         <v>91809</v>
@@ -2890,26 +2890,17 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>601530</v>
+        <v>601470</v>
       </c>
       <c r="R20" t="n">
-        <v>6992589</v>
+        <v>6992568</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2936,7 +2927,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025_0871</t>
+          <t>2025_0874</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2946,7 +2937,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2956,7 +2947,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2976,7 +2967,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2987,7 +2978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131106310</v>
+        <v>131106313</v>
       </c>
       <c r="B21" t="n">
         <v>91809</v>
@@ -3015,17 +3006,26 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>601470</v>
+        <v>601530</v>
       </c>
       <c r="R21" t="n">
-        <v>6992568</v>
+        <v>6992589</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025_0874</t>
+          <t>2025_0871</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1647,39 +1647,35 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131106315</v>
+        <v>131106321</v>
       </c>
       <c r="B10" t="n">
-        <v>92107</v>
+        <v>92022</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1691,10 +1687,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>601573</v>
+        <v>601579</v>
       </c>
       <c r="R10" t="n">
-        <v>6992600</v>
+        <v>6992698</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1717,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025_0868</t>
+          <t>2025_0862</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1731,7 +1727,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1741,7 +1737,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1761,7 +1757,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1772,7 +1768,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131106319</v>
+        <v>131106315</v>
       </c>
       <c r="B11" t="n">
         <v>92107</v>
@@ -1802,7 +1798,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1816,10 +1812,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>601569</v>
+        <v>601573</v>
       </c>
       <c r="R11" t="n">
-        <v>6992657</v>
+        <v>6992600</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,7 +1842,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025_0864</t>
+          <t>2025_0868</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1866,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1886,7 +1882,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1897,35 +1893,39 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131106321</v>
+        <v>131106319</v>
       </c>
       <c r="B12" t="n">
-        <v>92022</v>
+        <v>92107</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>601579</v>
+        <v>601569</v>
       </c>
       <c r="R12" t="n">
-        <v>6992698</v>
+        <v>6992657</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025_0862</t>
+          <t>2025_0864</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2018,10 +2018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106312</v>
+        <v>131106325</v>
       </c>
       <c r="B13" t="n">
-        <v>92107</v>
+        <v>91809</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,21 +2029,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2058,10 +2058,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601540</v>
+        <v>601615</v>
       </c>
       <c r="R13" t="n">
-        <v>6992576</v>
+        <v>6992785</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0872</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2139,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106314</v>
+        <v>131106312</v>
       </c>
       <c r="B14" t="n">
-        <v>91809</v>
+        <v>92107</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2150,28 +2150,24 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2183,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601556</v>
+        <v>601540</v>
       </c>
       <c r="R14" t="n">
-        <v>6992605</v>
+        <v>6992576</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2213,7 +2209,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0872</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2223,7 +2219,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2233,7 +2229,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2253,7 +2249,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2264,7 +2260,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131106325</v>
+        <v>131106314</v>
       </c>
       <c r="B15" t="n">
         <v>91809</v>
@@ -2292,7 +2288,11 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601615</v>
+        <v>601556</v>
       </c>
       <c r="R15" t="n">
-        <v>6992785</v>
+        <v>6992605</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2385,10 +2385,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131106320</v>
+        <v>131106308</v>
       </c>
       <c r="B16" t="n">
-        <v>58043</v>
+        <v>91809</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2396,34 +2396,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Gunnes gamla tomt, Ång</t>
+          <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>601577</v>
+        <v>601505</v>
       </c>
       <c r="R16" t="n">
-        <v>6992687</v>
+        <v>6992571</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2025_0863</t>
+          <t>2025_0876</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Anders Forsberg</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2501,10 +2501,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131106308</v>
+        <v>131106320</v>
       </c>
       <c r="B17" t="n">
-        <v>91809</v>
+        <v>58043</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2512,34 +2512,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Grunnes gamla tomt, Ång</t>
+          <t>Gunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>601505</v>
+        <v>601577</v>
       </c>
       <c r="R17" t="n">
-        <v>6992571</v>
+        <v>6992687</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2025_0876</t>
+          <t>2025_0863</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>Anders Forsberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131106310</v>
+        <v>131106313</v>
       </c>
       <c r="B20" t="n">
         <v>91809</v>
@@ -2890,17 +2890,26 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>601470</v>
+        <v>601530</v>
       </c>
       <c r="R20" t="n">
-        <v>6992568</v>
+        <v>6992589</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2927,7 +2936,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025_0874</t>
+          <t>2025_0871</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2937,7 +2946,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2947,7 +2956,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2967,7 +2976,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2978,7 +2987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131106313</v>
+        <v>131106310</v>
       </c>
       <c r="B21" t="n">
         <v>91809</v>
@@ -3006,26 +3015,17 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>601530</v>
+        <v>601470</v>
       </c>
       <c r="R21" t="n">
-        <v>6992589</v>
+        <v>6992568</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025_0871</t>
+          <t>2025_0874</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131106323</v>
+        <v>131108353</v>
       </c>
       <c r="B23" t="n">
-        <v>92107</v>
+        <v>10966</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,34 +3230,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Rosenticka</t>
-        </is>
+        <v>101449</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Olisthaerus substriatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Paykull, 1790)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>601607</v>
+        <v>601612</v>
       </c>
       <c r="R23" t="n">
-        <v>6992738</v>
+        <v>6992796</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3284,7 +3288,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0855</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3294,7 +3298,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3304,7 +3308,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Granlåga med både rynkskinn, ull-och violticka</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3335,10 +3344,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106327</v>
+        <v>131106323</v>
       </c>
       <c r="B24" t="n">
-        <v>91809</v>
+        <v>92107</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3346,29 +3355,24 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3378,7 +3382,7 @@
         <v>601607</v>
       </c>
       <c r="R24" t="n">
-        <v>6992789</v>
+        <v>6992738</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3405,7 +3409,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3415,7 +3419,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3425,7 +3429,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3445,7 +3449,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3456,7 +3460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106311</v>
+        <v>131106327</v>
       </c>
       <c r="B25" t="n">
         <v>91809</v>
@@ -3485,16 +3489,21 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>601498</v>
+        <v>601607</v>
       </c>
       <c r="R25" t="n">
-        <v>6992583</v>
+        <v>6992789</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3530,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3531,7 +3540,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3541,7 +3550,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3561,7 +3570,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3572,10 +3581,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131108353</v>
+        <v>131106311</v>
       </c>
       <c r="B26" t="n">
-        <v>10966</v>
+        <v>91809</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3583,38 +3592,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>101449</v>
+        <v>1202</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Olisthaerus substriatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Paykull, 1790)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>601612</v>
+        <v>601498</v>
       </c>
       <c r="R26" t="n">
-        <v>6992796</v>
+        <v>6992583</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3641,7 +3646,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2025_0855</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3651,7 +3656,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3661,12 +3666,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Granlåga med både rynkskinn, ull-och violticka</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3697,45 +3697,50 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131106330</v>
+        <v>131106329</v>
       </c>
       <c r="B27" t="n">
-        <v>92107</v>
+        <v>92268</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>601607</v>
+        <v>601609</v>
       </c>
       <c r="R27" t="n">
-        <v>6992782</v>
+        <v>6992789</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025_0853</t>
+          <t>2025_0854</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3772,7 +3777,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3782,7 +3787,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3813,50 +3818,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131106329</v>
+        <v>131106330</v>
       </c>
       <c r="B28" t="n">
-        <v>92268</v>
+        <v>92107</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>601609</v>
+        <v>601607</v>
       </c>
       <c r="R28" t="n">
-        <v>6992789</v>
+        <v>6992782</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025_0854</t>
+          <t>2025_0853</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1647,35 +1647,39 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131106321</v>
+        <v>131106319</v>
       </c>
       <c r="B10" t="n">
-        <v>92022</v>
+        <v>92107</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1687,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>601579</v>
+        <v>601569</v>
       </c>
       <c r="R10" t="n">
-        <v>6992698</v>
+        <v>6992657</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1717,7 +1721,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025_0862</t>
+          <t>2025_0864</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1727,7 +1731,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1737,7 +1741,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1893,39 +1897,35 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131106319</v>
+        <v>131106321</v>
       </c>
       <c r="B12" t="n">
-        <v>92107</v>
+        <v>92022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>601569</v>
+        <v>601579</v>
       </c>
       <c r="R12" t="n">
-        <v>6992657</v>
+        <v>6992698</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025_0864</t>
+          <t>2025_0862</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2018,7 +2018,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106325</v>
+        <v>131106314</v>
       </c>
       <c r="B13" t="n">
         <v>91809</v>
@@ -2046,7 +2046,11 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2058,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601615</v>
+        <v>601556</v>
       </c>
       <c r="R13" t="n">
-        <v>6992785</v>
+        <v>6992605</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0858</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2098,7 +2102,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2108,7 +2112,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2128,7 +2132,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2260,7 +2264,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131106314</v>
+        <v>131106325</v>
       </c>
       <c r="B15" t="n">
         <v>91809</v>
@@ -2288,11 +2292,7 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601556</v>
+        <v>601615</v>
       </c>
       <c r="R15" t="n">
-        <v>6992605</v>
+        <v>6992785</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0858</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131106313</v>
+        <v>131106310</v>
       </c>
       <c r="B20" t="n">
         <v>91809</v>
@@ -2890,26 +2890,17 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>601530</v>
+        <v>601470</v>
       </c>
       <c r="R20" t="n">
-        <v>6992589</v>
+        <v>6992568</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2936,7 +2927,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2025_0871</t>
+          <t>2025_0874</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2946,7 +2937,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2956,7 +2947,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2976,7 +2967,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2987,7 +2978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131106310</v>
+        <v>131106313</v>
       </c>
       <c r="B21" t="n">
         <v>91809</v>
@@ -3015,17 +3006,26 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>601470</v>
+        <v>601530</v>
       </c>
       <c r="R21" t="n">
-        <v>6992568</v>
+        <v>6992589</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2025_0874</t>
+          <t>2025_0871</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131108353</v>
+        <v>131106311</v>
       </c>
       <c r="B23" t="n">
-        <v>10966</v>
+        <v>91809</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,38 +3230,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101449</v>
+        <v>1202</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Olisthaerus substriatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Paykull, 1790)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>601612</v>
+        <v>601498</v>
       </c>
       <c r="R23" t="n">
-        <v>6992796</v>
+        <v>6992583</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3288,7 +3284,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0855</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3298,7 +3294,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3308,12 +3304,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Granlåga med både rynkskinn, ull-och violticka</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3333,7 +3324,7 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3344,10 +3335,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106323</v>
+        <v>131106327</v>
       </c>
       <c r="B24" t="n">
-        <v>92107</v>
+        <v>91809</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3355,24 +3346,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3382,7 +3378,7 @@
         <v>601607</v>
       </c>
       <c r="R24" t="n">
-        <v>6992738</v>
+        <v>6992789</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3409,7 +3405,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3419,7 +3415,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3429,7 +3425,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3449,7 +3445,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3460,10 +3456,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106327</v>
+        <v>131106323</v>
       </c>
       <c r="B25" t="n">
-        <v>91809</v>
+        <v>92107</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3471,29 +3467,24 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3503,7 +3494,7 @@
         <v>601607</v>
       </c>
       <c r="R25" t="n">
-        <v>6992789</v>
+        <v>6992738</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3530,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3540,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3550,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3570,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3581,10 +3572,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131106311</v>
+        <v>131108353</v>
       </c>
       <c r="B26" t="n">
-        <v>91809</v>
+        <v>10966</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3592,34 +3583,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
+        <v>101449</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Olisthaerus substriatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Paykull, 1790)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>601498</v>
+        <v>601612</v>
       </c>
       <c r="R26" t="n">
-        <v>6992583</v>
+        <v>6992796</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3646,7 +3641,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0855</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3656,7 +3651,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3666,7 +3661,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Granlåga med både rynkskinn, ull-och violticka</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3697,50 +3697,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131106329</v>
+        <v>131106330</v>
       </c>
       <c r="B27" t="n">
-        <v>92268</v>
+        <v>92107</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>601609</v>
+        <v>601607</v>
       </c>
       <c r="R27" t="n">
-        <v>6992789</v>
+        <v>6992782</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3767,7 +3762,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025_0854</t>
+          <t>2025_0853</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3777,7 +3772,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3787,7 +3782,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3818,45 +3813,50 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131106330</v>
+        <v>131106329</v>
       </c>
       <c r="B28" t="n">
-        <v>92107</v>
+        <v>92268</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>601607</v>
+        <v>601609</v>
       </c>
       <c r="R28" t="n">
-        <v>6992782</v>
+        <v>6992789</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2025_0853</t>
+          <t>2025_0854</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1060,7 +1060,7 @@
         <v>131106322</v>
       </c>
       <c r="B5" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>131106324</v>
       </c>
       <c r="B6" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>131106316</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>131106309</v>
       </c>
       <c r="B8" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>131106326</v>
       </c>
       <c r="B9" t="n">
-        <v>92180</v>
+        <v>92181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>131106319</v>
       </c>
       <c r="B10" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>131106315</v>
       </c>
       <c r="B11" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>131106321</v>
       </c>
       <c r="B12" t="n">
-        <v>92022</v>
+        <v>92023</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106314</v>
+        <v>131106312</v>
       </c>
       <c r="B13" t="n">
-        <v>91809</v>
+        <v>92108</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,28 +2029,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2062,10 +2058,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601556</v>
+        <v>601540</v>
       </c>
       <c r="R13" t="n">
-        <v>6992605</v>
+        <v>6992576</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2092,7 +2088,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0872</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2102,7 +2098,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2112,7 +2108,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2132,7 +2128,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2143,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106312</v>
+        <v>131106314</v>
       </c>
       <c r="B14" t="n">
-        <v>92107</v>
+        <v>91810</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2154,24 +2150,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601540</v>
+        <v>601556</v>
       </c>
       <c r="R14" t="n">
-        <v>6992576</v>
+        <v>6992605</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0872</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2267,7 +2267,7 @@
         <v>131106325</v>
       </c>
       <c r="B15" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>131106308</v>
       </c>
       <c r="B16" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>131106318</v>
       </c>
       <c r="B19" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>131106310</v>
       </c>
       <c r="B20" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>131106313</v>
       </c>
       <c r="B21" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>131106317</v>
       </c>
       <c r="B22" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131106311</v>
+        <v>131106323</v>
       </c>
       <c r="B23" t="n">
-        <v>91809</v>
+        <v>92108</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,21 +3230,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>601498</v>
+        <v>601607</v>
       </c>
       <c r="R23" t="n">
-        <v>6992583</v>
+        <v>6992738</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3335,10 +3335,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106327</v>
+        <v>131106311</v>
       </c>
       <c r="B24" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3364,21 +3364,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>601607</v>
+        <v>601498</v>
       </c>
       <c r="R24" t="n">
-        <v>6992789</v>
+        <v>6992583</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3405,7 +3400,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3415,7 +3410,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3425,7 +3420,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3445,7 +3440,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3456,10 +3451,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106323</v>
+        <v>131106327</v>
       </c>
       <c r="B25" t="n">
-        <v>92107</v>
+        <v>91810</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3467,24 +3462,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3494,7 +3494,7 @@
         <v>601607</v>
       </c>
       <c r="R25" t="n">
-        <v>6992738</v>
+        <v>6992789</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3700,7 +3700,7 @@
         <v>131106330</v>
       </c>
       <c r="B27" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>131106329</v>
       </c>
       <c r="B28" t="n">
-        <v>92268</v>
+        <v>92269</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/artfynd/A 62197-2025 artfynd.xlsx
+++ b/artfynd/A 62197-2025 artfynd.xlsx
@@ -1060,7 +1060,7 @@
         <v>131106322</v>
       </c>
       <c r="B5" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>131106324</v>
       </c>
       <c r="B6" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>131106309</v>
       </c>
       <c r="B8" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>131106326</v>
       </c>
       <c r="B9" t="n">
-        <v>92181</v>
+        <v>92184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>131106319</v>
       </c>
       <c r="B10" t="n">
-        <v>92108</v>
+        <v>92111</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>131106315</v>
       </c>
       <c r="B11" t="n">
-        <v>92108</v>
+        <v>92111</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>131106321</v>
       </c>
       <c r="B12" t="n">
-        <v>92023</v>
+        <v>92026</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131106312</v>
+        <v>131106314</v>
       </c>
       <c r="B13" t="n">
-        <v>92108</v>
+        <v>91813</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,24 +2029,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2058,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601540</v>
+        <v>601556</v>
       </c>
       <c r="R13" t="n">
-        <v>6992576</v>
+        <v>6992605</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025_0872</t>
+          <t>2025_0870</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2098,7 +2102,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2108,7 +2112,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2128,7 +2132,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2139,10 +2143,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131106314</v>
+        <v>131106312</v>
       </c>
       <c r="B14" t="n">
-        <v>91810</v>
+        <v>92111</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2150,28 +2154,24 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>mycel</t>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601556</v>
+        <v>601540</v>
       </c>
       <c r="R14" t="n">
-        <v>6992605</v>
+        <v>6992576</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025_0870</t>
+          <t>2025_0872</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2267,7 +2267,7 @@
         <v>131106325</v>
       </c>
       <c r="B15" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131106308</v>
+        <v>131106320</v>
       </c>
       <c r="B16" t="n">
-        <v>91810</v>
+        <v>58043</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2396,34 +2396,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Grunnes gamla tomt, Ång</t>
+          <t>Gunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>601505</v>
+        <v>601577</v>
       </c>
       <c r="R16" t="n">
-        <v>6992571</v>
+        <v>6992687</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2025_0876</t>
+          <t>2025_0863</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>Anders Forsberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2501,10 +2501,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131106320</v>
+        <v>131106308</v>
       </c>
       <c r="B17" t="n">
-        <v>58043</v>
+        <v>91813</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2512,34 +2512,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gunnes gamla tomt, Ång</t>
+          <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>601577</v>
+        <v>601505</v>
       </c>
       <c r="R17" t="n">
-        <v>6992687</v>
+        <v>6992571</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2025_0863</t>
+          <t>2025_0876</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Anders Forsberg</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2740,7 +2740,7 @@
         <v>131106318</v>
       </c>
       <c r="B19" t="n">
-        <v>92108</v>
+        <v>92111</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>131106310</v>
       </c>
       <c r="B20" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>131106313</v>
       </c>
       <c r="B21" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>131106317</v>
       </c>
       <c r="B22" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131106323</v>
+        <v>131106311</v>
       </c>
       <c r="B23" t="n">
-        <v>92108</v>
+        <v>91813</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3230,21 +3230,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>601607</v>
+        <v>601498</v>
       </c>
       <c r="R23" t="n">
-        <v>6992738</v>
+        <v>6992583</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025_0860</t>
+          <t>2025_0873</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3335,10 +3335,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131106311</v>
+        <v>131106327</v>
       </c>
       <c r="B24" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3364,16 +3364,21 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>601498</v>
+        <v>601607</v>
       </c>
       <c r="R24" t="n">
-        <v>6992583</v>
+        <v>6992789</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3400,7 +3405,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025_0873</t>
+          <t>2025_0856</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3410,7 +3415,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3420,7 +3425,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3440,7 +3445,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Alexander Hoffmann</t>
+          <t>David Isaksson, Alexander Hoffmann</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3451,10 +3456,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131106327</v>
+        <v>131106323</v>
       </c>
       <c r="B25" t="n">
-        <v>91810</v>
+        <v>92111</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3462,29 +3467,24 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grunnes gamla tomt, Ång</t>
@@ -3494,7 +3494,7 @@
         <v>601607</v>
       </c>
       <c r="R25" t="n">
-        <v>6992789</v>
+        <v>6992738</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025_0856</t>
+          <t>2025_0860</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>David Isaksson, Alexander Hoffmann</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3700,7 +3700,7 @@
         <v>131106330</v>
       </c>
       <c r="B27" t="n">
-        <v>92108</v>
+        <v>92111</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>131106329</v>
       </c>
       <c r="B28" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
